--- a/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
+++ b/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katai\source\repos\AIS\AIS\MainTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии оценки" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Макс. балл</t>
   </si>
@@ -245,74 +245,120 @@
   </si>
   <si>
     <t>Название аттестации</t>
+  </si>
+  <si>
+    <t>ПМ.01 Разработка модулей программного обеспечения для компьютерных систем</t>
+  </si>
+  <si>
+    <t>ОП.11 Компьютерные сети</t>
+  </si>
+  <si>
+    <t>Отборочный этап ПРБ</t>
+  </si>
+  <si>
+    <t>МДК.01.01 Разработка программных модулей</t>
+  </si>
+  <si>
+    <t>МДК.01.03 Разработка мобильных приложений</t>
+  </si>
+  <si>
+    <t>ПР-21.102</t>
+  </si>
+  <si>
+    <t>ПР-21.103к</t>
+  </si>
+  <si>
+    <t>ПР-21.106</t>
+  </si>
+  <si>
+    <t>ПР-21.107к</t>
+  </si>
+  <si>
+    <t>ПР-20.101</t>
+  </si>
+  <si>
+    <t>ПР-20.102к</t>
+  </si>
+  <si>
+    <t>ПР-20.106</t>
+  </si>
+  <si>
+    <t>ПР-20.107к</t>
+  </si>
+  <si>
+    <t>ПР-315</t>
+  </si>
+  <si>
+    <t>ПР-319к</t>
+  </si>
+  <si>
+    <t>ПР-424</t>
+  </si>
+  <si>
+    <t>ПР-495</t>
+  </si>
+  <si>
+    <t>ПР-499К</t>
+  </si>
+  <si>
+    <t>Отборочная</t>
+  </si>
+  <si>
+    <t>КС-22.241</t>
+  </si>
+  <si>
+    <t>ПР-22.106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -343,14 +389,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F5496"/>
-        <bgColor rgb="FF2F5496"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor rgb="FFDEEAF6"/>
+        <fgColor rgb="FF2F5496"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -364,16 +410,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,29 +475,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -461,13 +507,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -699,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W761"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4978,13 +5024,13 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B19"/>
@@ -5005,6 +5051,46 @@
         <v>35</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5012,7 +5098,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -5033,6 +5119,134 @@
         <v>72</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5040,7 +5254,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -5059,6 +5273,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5068,7 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:M4"/>
     </sheetView>
   </sheetViews>

--- a/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
+++ b/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Макс. балл</t>
   </si>
@@ -247,67 +247,16 @@
     <t>Название аттестации</t>
   </si>
   <si>
-    <t>ПМ.01 Разработка модулей программного обеспечения для компьютерных систем</t>
-  </si>
-  <si>
-    <t>ОП.11 Компьютерные сети</t>
-  </si>
-  <si>
-    <t>Отборочный этап ПРБ</t>
-  </si>
-  <si>
-    <t>МДК.01.01 Разработка программных модулей</t>
-  </si>
-  <si>
-    <t>МДК.01.03 Разработка мобильных приложений</t>
-  </si>
-  <si>
-    <t>ПР-21.102</t>
-  </si>
-  <si>
-    <t>ПР-21.103к</t>
-  </si>
-  <si>
     <t>ПР-21.106</t>
   </si>
   <si>
-    <t>ПР-21.107к</t>
-  </si>
-  <si>
     <t>ПР-20.101</t>
   </si>
   <si>
-    <t>ПР-20.102к</t>
+    <t>Основы проектирования баз данных</t>
   </si>
   <si>
     <t>ПР-20.106</t>
-  </si>
-  <si>
-    <t>ПР-20.107к</t>
-  </si>
-  <si>
-    <t>ПР-315</t>
-  </si>
-  <si>
-    <t>ПР-319к</t>
-  </si>
-  <si>
-    <t>ПР-424</t>
-  </si>
-  <si>
-    <t>ПР-495</t>
-  </si>
-  <si>
-    <t>ПР-499К</t>
-  </si>
-  <si>
-    <t>Отборочная</t>
-  </si>
-  <si>
-    <t>КС-22.241</t>
-  </si>
-  <si>
-    <t>ПР-22.106</t>
   </si>
 </sst>
 </file>
@@ -5030,7 +4979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B19"/>
@@ -5056,39 +5005,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5098,7 +5015,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -5124,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,111 +5057,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
+++ b/AIS/MainTemplates/Шаблон для импорта криетриев.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Макс. балл</t>
   </si>
@@ -253,10 +253,13 @@
     <t>ПР-20.101</t>
   </si>
   <si>
-    <t>Основы проектирования баз данных</t>
-  </si>
-  <si>
     <t>ПР-20.106</t>
+  </si>
+  <si>
+    <t>МДК.01.03 Разработка мобильных приложений</t>
+  </si>
+  <si>
+    <t>Операционные системы и среды</t>
   </si>
 </sst>
 </file>
@@ -4979,7 +4982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B19"/>
@@ -5005,7 +5008,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5057,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
